--- a/outputs/tf/bert.xlsx
+++ b/outputs/tf/bert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="details" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -96,7 +96,75 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -392,10 +460,10 @@
   <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4189,21 +4257,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:J105">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
       <formula>397056</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K105">
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
       <formula>4722432.0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L105">
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
       <formula>2417885184.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4221,7 +4289,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4262,6 +4330,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/tf/bert.xlsx
+++ b/outputs/tf/bert.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="details" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="details" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -60,18 +60,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -96,75 +96,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -457,13 +389,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="C2" xSplit="2" ySplit="1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -611,20 +543,20 @@
         <v>512</v>
       </c>
       <c r="H4" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I4" t="n">
         <v>512</v>
       </c>
       <c r="J4" t="n">
-        <v>397056</v>
+        <v>529408</v>
       </c>
       <c r="K4" t="n">
-        <v>3840</v>
+        <v>5120</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>;(5, 768)</t>
+          <t>;(5, 1024)</t>
         </is>
       </c>
     </row>
@@ -646,16 +578,16 @@
         <v>512</v>
       </c>
       <c r="H5" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I5" t="n">
         <v>512</v>
       </c>
       <c r="J5" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K5" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="6">
@@ -673,28 +605,28 @@
         <v>512</v>
       </c>
       <c r="D6" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E6" t="n">
         <v>512</v>
       </c>
       <c r="F6" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G6" t="n">
         <v>512</v>
       </c>
       <c r="H6" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I6" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J6" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M6" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="7">
@@ -712,22 +644,22 @@
         <v>512</v>
       </c>
       <c r="D7" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G7" t="n">
         <v>512</v>
       </c>
       <c r="H7" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I7" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J7" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K7" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="8">
@@ -745,19 +677,19 @@
         <v>512</v>
       </c>
       <c r="D8" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G8" t="n">
         <v>512</v>
       </c>
       <c r="H8" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I8" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J8" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="9">
@@ -775,22 +707,22 @@
         <v>512</v>
       </c>
       <c r="D9" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G9" t="n">
         <v>512</v>
       </c>
       <c r="H9" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I9" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J9" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K9" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M9" t="n">
         <v>3582</v>
@@ -814,31 +746,31 @@
         <v>512</v>
       </c>
       <c r="D10" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G10" t="n">
         <v>512</v>
       </c>
       <c r="H10" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I10" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J10" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K10" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L10" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M10" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N10" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="11">
@@ -853,16 +785,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H11" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I11" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J11" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="12">
@@ -880,25 +812,25 @@
         <v>512</v>
       </c>
       <c r="D12" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F12" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G12" t="n">
         <v>512</v>
       </c>
       <c r="H12" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I12" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J12" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M12" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="13">
@@ -916,22 +848,22 @@
         <v>512</v>
       </c>
       <c r="D13" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G13" t="n">
         <v>512</v>
       </c>
       <c r="H13" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I13" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J13" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K13" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M13" t="n">
         <v>3582</v>
@@ -955,28 +887,28 @@
         <v>512</v>
       </c>
       <c r="D14" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G14" t="n">
         <v>512</v>
       </c>
       <c r="H14" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I14" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J14" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K14" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L14" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N14" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="15">
@@ -994,19 +926,19 @@
         <v>512</v>
       </c>
       <c r="D15" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G15" t="n">
         <v>512</v>
       </c>
       <c r="H15" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I15" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J15" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="16">
@@ -1024,28 +956,28 @@
         <v>512</v>
       </c>
       <c r="D16" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E16" t="n">
         <v>512</v>
       </c>
       <c r="F16" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G16" t="n">
         <v>512</v>
       </c>
       <c r="H16" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I16" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J16" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M16" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="17">
@@ -1063,22 +995,22 @@
         <v>512</v>
       </c>
       <c r="D17" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G17" t="n">
         <v>512</v>
       </c>
       <c r="H17" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I17" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J17" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K17" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M17" t="n">
         <v>3582</v>
@@ -1102,31 +1034,31 @@
         <v>512</v>
       </c>
       <c r="D18" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G18" t="n">
         <v>512</v>
       </c>
       <c r="H18" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I18" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J18" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K18" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L18" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M18" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N18" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="19">
@@ -1141,16 +1073,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H19" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I19" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J19" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="20">
@@ -1168,25 +1100,25 @@
         <v>512</v>
       </c>
       <c r="D20" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F20" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G20" t="n">
         <v>512</v>
       </c>
       <c r="H20" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I20" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J20" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M20" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="21">
@@ -1204,22 +1136,22 @@
         <v>512</v>
       </c>
       <c r="D21" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G21" t="n">
         <v>512</v>
       </c>
       <c r="H21" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I21" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J21" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K21" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M21" t="n">
         <v>3582</v>
@@ -1243,28 +1175,28 @@
         <v>512</v>
       </c>
       <c r="D22" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G22" t="n">
         <v>512</v>
       </c>
       <c r="H22" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I22" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J22" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K22" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L22" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N22" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="23">
@@ -1282,19 +1214,19 @@
         <v>512</v>
       </c>
       <c r="D23" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G23" t="n">
         <v>512</v>
       </c>
       <c r="H23" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I23" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J23" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="24">
@@ -1312,28 +1244,28 @@
         <v>512</v>
       </c>
       <c r="D24" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E24" t="n">
         <v>512</v>
       </c>
       <c r="F24" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G24" t="n">
         <v>512</v>
       </c>
       <c r="H24" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I24" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J24" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M24" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="25">
@@ -1351,22 +1283,22 @@
         <v>512</v>
       </c>
       <c r="D25" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G25" t="n">
         <v>512</v>
       </c>
       <c r="H25" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I25" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J25" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K25" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M25" t="n">
         <v>3582</v>
@@ -1390,31 +1322,31 @@
         <v>512</v>
       </c>
       <c r="D26" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G26" t="n">
         <v>512</v>
       </c>
       <c r="H26" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I26" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J26" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K26" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L26" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M26" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N26" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="27">
@@ -1429,16 +1361,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H27" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I27" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J27" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="28">
@@ -1456,25 +1388,25 @@
         <v>512</v>
       </c>
       <c r="D28" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F28" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G28" t="n">
         <v>512</v>
       </c>
       <c r="H28" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I28" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J28" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M28" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="29">
@@ -1492,22 +1424,22 @@
         <v>512</v>
       </c>
       <c r="D29" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G29" t="n">
         <v>512</v>
       </c>
       <c r="H29" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I29" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J29" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K29" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M29" t="n">
         <v>3582</v>
@@ -1531,28 +1463,28 @@
         <v>512</v>
       </c>
       <c r="D30" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G30" t="n">
         <v>512</v>
       </c>
       <c r="H30" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I30" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J30" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K30" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L30" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N30" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="31">
@@ -1570,19 +1502,19 @@
         <v>512</v>
       </c>
       <c r="D31" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G31" t="n">
         <v>512</v>
       </c>
       <c r="H31" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I31" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J31" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="32">
@@ -1600,28 +1532,28 @@
         <v>512</v>
       </c>
       <c r="D32" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E32" t="n">
         <v>512</v>
       </c>
       <c r="F32" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G32" t="n">
         <v>512</v>
       </c>
       <c r="H32" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I32" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J32" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M32" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="33">
@@ -1639,22 +1571,22 @@
         <v>512</v>
       </c>
       <c r="D33" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G33" t="n">
         <v>512</v>
       </c>
       <c r="H33" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I33" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J33" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K33" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M33" t="n">
         <v>3582</v>
@@ -1678,31 +1610,31 @@
         <v>512</v>
       </c>
       <c r="D34" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G34" t="n">
         <v>512</v>
       </c>
       <c r="H34" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I34" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J34" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K34" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L34" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M34" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N34" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="35">
@@ -1717,16 +1649,16 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H35" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I35" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J35" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="36">
@@ -1744,25 +1676,25 @@
         <v>512</v>
       </c>
       <c r="D36" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F36" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G36" t="n">
         <v>512</v>
       </c>
       <c r="H36" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I36" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J36" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M36" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="37">
@@ -1780,22 +1712,22 @@
         <v>512</v>
       </c>
       <c r="D37" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G37" t="n">
         <v>512</v>
       </c>
       <c r="H37" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I37" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J37" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K37" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M37" t="n">
         <v>3582</v>
@@ -1819,28 +1751,28 @@
         <v>512</v>
       </c>
       <c r="D38" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G38" t="n">
         <v>512</v>
       </c>
       <c r="H38" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I38" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J38" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K38" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L38" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N38" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="39">
@@ -1858,19 +1790,19 @@
         <v>512</v>
       </c>
       <c r="D39" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G39" t="n">
         <v>512</v>
       </c>
       <c r="H39" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I39" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J39" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="40">
@@ -1888,28 +1820,28 @@
         <v>512</v>
       </c>
       <c r="D40" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E40" t="n">
         <v>512</v>
       </c>
       <c r="F40" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G40" t="n">
         <v>512</v>
       </c>
       <c r="H40" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I40" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J40" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M40" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="41">
@@ -1927,22 +1859,22 @@
         <v>512</v>
       </c>
       <c r="D41" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G41" t="n">
         <v>512</v>
       </c>
       <c r="H41" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I41" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J41" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K41" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M41" t="n">
         <v>3582</v>
@@ -1966,31 +1898,31 @@
         <v>512</v>
       </c>
       <c r="D42" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G42" t="n">
         <v>512</v>
       </c>
       <c r="H42" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I42" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J42" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K42" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L42" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M42" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N42" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="43">
@@ -2005,16 +1937,16 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H43" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I43" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J43" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="44">
@@ -2032,25 +1964,25 @@
         <v>512</v>
       </c>
       <c r="D44" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F44" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G44" t="n">
         <v>512</v>
       </c>
       <c r="H44" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I44" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J44" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M44" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="45">
@@ -2068,22 +2000,22 @@
         <v>512</v>
       </c>
       <c r="D45" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G45" t="n">
         <v>512</v>
       </c>
       <c r="H45" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I45" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J45" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K45" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M45" t="n">
         <v>3582</v>
@@ -2107,28 +2039,28 @@
         <v>512</v>
       </c>
       <c r="D46" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G46" t="n">
         <v>512</v>
       </c>
       <c r="H46" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I46" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J46" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K46" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L46" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N46" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="47">
@@ -2146,19 +2078,19 @@
         <v>512</v>
       </c>
       <c r="D47" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G47" t="n">
         <v>512</v>
       </c>
       <c r="H47" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I47" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J47" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="48">
@@ -2176,28 +2108,28 @@
         <v>512</v>
       </c>
       <c r="D48" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E48" t="n">
         <v>512</v>
       </c>
       <c r="F48" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G48" t="n">
         <v>512</v>
       </c>
       <c r="H48" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I48" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J48" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M48" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="49">
@@ -2215,22 +2147,22 @@
         <v>512</v>
       </c>
       <c r="D49" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G49" t="n">
         <v>512</v>
       </c>
       <c r="H49" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I49" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J49" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K49" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M49" t="n">
         <v>3582</v>
@@ -2254,31 +2186,31 @@
         <v>512</v>
       </c>
       <c r="D50" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G50" t="n">
         <v>512</v>
       </c>
       <c r="H50" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I50" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J50" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K50" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L50" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M50" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N50" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="51">
@@ -2293,16 +2225,16 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H51" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I51" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J51" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="52">
@@ -2320,25 +2252,25 @@
         <v>512</v>
       </c>
       <c r="D52" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F52" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G52" t="n">
         <v>512</v>
       </c>
       <c r="H52" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I52" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J52" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M52" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="53">
@@ -2356,22 +2288,22 @@
         <v>512</v>
       </c>
       <c r="D53" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G53" t="n">
         <v>512</v>
       </c>
       <c r="H53" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I53" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J53" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K53" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M53" t="n">
         <v>3582</v>
@@ -2395,28 +2327,28 @@
         <v>512</v>
       </c>
       <c r="D54" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G54" t="n">
         <v>512</v>
       </c>
       <c r="H54" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I54" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J54" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K54" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L54" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N54" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="55">
@@ -2434,19 +2366,19 @@
         <v>512</v>
       </c>
       <c r="D55" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G55" t="n">
         <v>512</v>
       </c>
       <c r="H55" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I55" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J55" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="56">
@@ -2464,28 +2396,28 @@
         <v>512</v>
       </c>
       <c r="D56" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E56" t="n">
         <v>512</v>
       </c>
       <c r="F56" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G56" t="n">
         <v>512</v>
       </c>
       <c r="H56" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I56" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J56" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M56" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="57">
@@ -2503,22 +2435,22 @@
         <v>512</v>
       </c>
       <c r="D57" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G57" t="n">
         <v>512</v>
       </c>
       <c r="H57" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I57" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J57" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K57" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M57" t="n">
         <v>3582</v>
@@ -2542,31 +2474,31 @@
         <v>512</v>
       </c>
       <c r="D58" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G58" t="n">
         <v>512</v>
       </c>
       <c r="H58" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I58" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J58" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K58" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L58" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M58" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N58" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="59">
@@ -2581,16 +2513,16 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H59" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I59" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J59" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60">
@@ -2608,25 +2540,25 @@
         <v>512</v>
       </c>
       <c r="D60" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F60" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G60" t="n">
         <v>512</v>
       </c>
       <c r="H60" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I60" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J60" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M60" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="61">
@@ -2644,22 +2576,22 @@
         <v>512</v>
       </c>
       <c r="D61" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G61" t="n">
         <v>512</v>
       </c>
       <c r="H61" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I61" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J61" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K61" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M61" t="n">
         <v>3582</v>
@@ -2683,28 +2615,28 @@
         <v>512</v>
       </c>
       <c r="D62" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G62" t="n">
         <v>512</v>
       </c>
       <c r="H62" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I62" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J62" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K62" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L62" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N62" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="63">
@@ -2722,19 +2654,19 @@
         <v>512</v>
       </c>
       <c r="D63" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G63" t="n">
         <v>512</v>
       </c>
       <c r="H63" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I63" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J63" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="64">
@@ -2752,28 +2684,28 @@
         <v>512</v>
       </c>
       <c r="D64" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E64" t="n">
         <v>512</v>
       </c>
       <c r="F64" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G64" t="n">
         <v>512</v>
       </c>
       <c r="H64" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I64" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J64" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M64" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="65">
@@ -2791,22 +2723,22 @@
         <v>512</v>
       </c>
       <c r="D65" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G65" t="n">
         <v>512</v>
       </c>
       <c r="H65" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I65" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J65" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K65" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M65" t="n">
         <v>3582</v>
@@ -2830,31 +2762,31 @@
         <v>512</v>
       </c>
       <c r="D66" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G66" t="n">
         <v>512</v>
       </c>
       <c r="H66" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I66" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J66" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K66" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L66" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M66" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N66" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="67">
@@ -2869,16 +2801,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H67" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I67" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J67" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="68">
@@ -2896,25 +2828,25 @@
         <v>512</v>
       </c>
       <c r="D68" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F68" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G68" t="n">
         <v>512</v>
       </c>
       <c r="H68" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I68" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J68" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M68" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="69">
@@ -2932,22 +2864,22 @@
         <v>512</v>
       </c>
       <c r="D69" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G69" t="n">
         <v>512</v>
       </c>
       <c r="H69" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I69" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J69" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K69" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M69" t="n">
         <v>3582</v>
@@ -2971,28 +2903,28 @@
         <v>512</v>
       </c>
       <c r="D70" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G70" t="n">
         <v>512</v>
       </c>
       <c r="H70" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I70" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J70" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K70" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L70" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N70" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="71">
@@ -3010,19 +2942,19 @@
         <v>512</v>
       </c>
       <c r="D71" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G71" t="n">
         <v>512</v>
       </c>
       <c r="H71" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I71" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J71" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="72">
@@ -3040,28 +2972,28 @@
         <v>512</v>
       </c>
       <c r="D72" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E72" t="n">
         <v>512</v>
       </c>
       <c r="F72" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G72" t="n">
         <v>512</v>
       </c>
       <c r="H72" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I72" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J72" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M72" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="73">
@@ -3079,22 +3011,22 @@
         <v>512</v>
       </c>
       <c r="D73" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G73" t="n">
         <v>512</v>
       </c>
       <c r="H73" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I73" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J73" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K73" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M73" t="n">
         <v>3582</v>
@@ -3118,31 +3050,31 @@
         <v>512</v>
       </c>
       <c r="D74" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G74" t="n">
         <v>512</v>
       </c>
       <c r="H74" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I74" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J74" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K74" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L74" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M74" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N74" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="75">
@@ -3157,16 +3089,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H75" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I75" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J75" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="76">
@@ -3184,25 +3116,25 @@
         <v>512</v>
       </c>
       <c r="D76" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F76" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G76" t="n">
         <v>512</v>
       </c>
       <c r="H76" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I76" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J76" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M76" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="77">
@@ -3220,22 +3152,22 @@
         <v>512</v>
       </c>
       <c r="D77" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G77" t="n">
         <v>512</v>
       </c>
       <c r="H77" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I77" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J77" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K77" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M77" t="n">
         <v>3582</v>
@@ -3259,28 +3191,28 @@
         <v>512</v>
       </c>
       <c r="D78" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G78" t="n">
         <v>512</v>
       </c>
       <c r="H78" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I78" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J78" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K78" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L78" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N78" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="79">
@@ -3298,19 +3230,19 @@
         <v>512</v>
       </c>
       <c r="D79" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G79" t="n">
         <v>512</v>
       </c>
       <c r="H79" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I79" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J79" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="80">
@@ -3328,28 +3260,28 @@
         <v>512</v>
       </c>
       <c r="D80" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E80" t="n">
         <v>512</v>
       </c>
       <c r="F80" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G80" t="n">
         <v>512</v>
       </c>
       <c r="H80" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I80" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J80" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M80" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="81">
@@ -3367,22 +3299,22 @@
         <v>512</v>
       </c>
       <c r="D81" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G81" t="n">
         <v>512</v>
       </c>
       <c r="H81" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I81" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J81" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K81" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M81" t="n">
         <v>3582</v>
@@ -3406,31 +3338,31 @@
         <v>512</v>
       </c>
       <c r="D82" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G82" t="n">
         <v>512</v>
       </c>
       <c r="H82" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I82" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J82" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K82" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L82" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M82" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N82" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="83">
@@ -3445,16 +3377,16 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H83" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I83" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J83" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="84">
@@ -3472,25 +3404,25 @@
         <v>512</v>
       </c>
       <c r="D84" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F84" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G84" t="n">
         <v>512</v>
       </c>
       <c r="H84" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I84" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J84" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M84" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="85">
@@ -3508,22 +3440,22 @@
         <v>512</v>
       </c>
       <c r="D85" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G85" t="n">
         <v>512</v>
       </c>
       <c r="H85" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I85" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J85" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K85" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M85" t="n">
         <v>3582</v>
@@ -3547,28 +3479,28 @@
         <v>512</v>
       </c>
       <c r="D86" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G86" t="n">
         <v>512</v>
       </c>
       <c r="H86" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I86" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J86" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K86" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L86" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N86" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="87">
@@ -3586,19 +3518,19 @@
         <v>512</v>
       </c>
       <c r="D87" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G87" t="n">
         <v>512</v>
       </c>
       <c r="H87" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I87" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J87" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="88">
@@ -3616,28 +3548,28 @@
         <v>512</v>
       </c>
       <c r="D88" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E88" t="n">
         <v>512</v>
       </c>
       <c r="F88" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G88" t="n">
         <v>512</v>
       </c>
       <c r="H88" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I88" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J88" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M88" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="89">
@@ -3655,22 +3587,22 @@
         <v>512</v>
       </c>
       <c r="D89" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G89" t="n">
         <v>512</v>
       </c>
       <c r="H89" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I89" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J89" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K89" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M89" t="n">
         <v>3582</v>
@@ -3694,31 +3626,31 @@
         <v>512</v>
       </c>
       <c r="D90" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G90" t="n">
         <v>512</v>
       </c>
       <c r="H90" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I90" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J90" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K90" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L90" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M90" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N90" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="91">
@@ -3733,16 +3665,16 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H91" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I91" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J91" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="92">
@@ -3760,25 +3692,25 @@
         <v>512</v>
       </c>
       <c r="D92" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F92" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G92" t="n">
         <v>512</v>
       </c>
       <c r="H92" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I92" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J92" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M92" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="93">
@@ -3796,22 +3728,22 @@
         <v>512</v>
       </c>
       <c r="D93" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G93" t="n">
         <v>512</v>
       </c>
       <c r="H93" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I93" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J93" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K93" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M93" t="n">
         <v>3582</v>
@@ -3835,28 +3767,28 @@
         <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G94" t="n">
         <v>512</v>
       </c>
       <c r="H94" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I94" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J94" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K94" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L94" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N94" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="95">
@@ -3874,19 +3806,19 @@
         <v>512</v>
       </c>
       <c r="D95" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G95" t="n">
         <v>512</v>
       </c>
       <c r="H95" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I95" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J95" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="96">
@@ -3904,28 +3836,28 @@
         <v>512</v>
       </c>
       <c r="D96" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E96" t="n">
         <v>512</v>
       </c>
       <c r="F96" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G96" t="n">
         <v>512</v>
       </c>
       <c r="H96" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I96" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J96" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M96" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="97">
@@ -3943,22 +3875,22 @@
         <v>512</v>
       </c>
       <c r="D97" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G97" t="n">
         <v>512</v>
       </c>
       <c r="H97" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I97" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J97" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K97" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M97" t="n">
         <v>3582</v>
@@ -3982,31 +3914,31 @@
         <v>512</v>
       </c>
       <c r="D98" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G98" t="n">
         <v>512</v>
       </c>
       <c r="H98" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I98" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J98" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K98" t="n">
-        <v>2362368</v>
+        <v>4198400</v>
       </c>
       <c r="L98" t="n">
-        <v>1612185600</v>
+        <v>2686451712</v>
       </c>
       <c r="M98" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
       <c r="N98" t="n">
-        <v>3145728</v>
+        <v>4194304</v>
       </c>
     </row>
     <row r="99">
@@ -4021,16 +3953,16 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="H99" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I99" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="J99" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="100">
@@ -4048,25 +3980,25 @@
         <v>512</v>
       </c>
       <c r="D100" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="F100" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G100" t="n">
         <v>512</v>
       </c>
       <c r="H100" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I100" t="n">
-        <v>393984</v>
+        <v>525312</v>
       </c>
       <c r="J100" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M100" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="101">
@@ -4084,22 +4016,22 @@
         <v>512</v>
       </c>
       <c r="D101" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G101" t="n">
         <v>512</v>
       </c>
       <c r="H101" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I101" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J101" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K101" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M101" t="n">
         <v>3582</v>
@@ -4123,28 +4055,28 @@
         <v>512</v>
       </c>
       <c r="D102" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G102" t="n">
         <v>512</v>
       </c>
       <c r="H102" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I102" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J102" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K102" t="n">
-        <v>4722432</v>
+        <v>6295552</v>
       </c>
       <c r="L102" t="n">
-        <v>2417885184</v>
+        <v>3223322624</v>
       </c>
       <c r="N102" t="n">
-        <v>1966080</v>
+        <v>2097152</v>
       </c>
     </row>
     <row r="103">
@@ -4162,19 +4094,19 @@
         <v>512</v>
       </c>
       <c r="D103" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G103" t="n">
         <v>512</v>
       </c>
       <c r="H103" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I103" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J103" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="104">
@@ -4192,28 +4124,28 @@
         <v>512</v>
       </c>
       <c r="D104" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="E104" t="n">
         <v>512</v>
       </c>
       <c r="F104" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G104" t="n">
         <v>512</v>
       </c>
       <c r="H104" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I104" t="n">
-        <v>786432</v>
+        <v>1048576</v>
       </c>
       <c r="J104" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="M104" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
     </row>
     <row r="105">
@@ -4231,22 +4163,22 @@
         <v>512</v>
       </c>
       <c r="D105" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="G105" t="n">
         <v>512</v>
       </c>
       <c r="H105" t="n">
-        <v>768</v>
+        <v>1024</v>
       </c>
       <c r="I105" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="J105" t="n">
-        <v>393216</v>
+        <v>524288</v>
       </c>
       <c r="K105" t="n">
-        <v>1536</v>
+        <v>2048</v>
       </c>
       <c r="M105" t="n">
         <v>3582</v>
@@ -4255,23 +4187,287 @@
         <v>512</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MLM-Dense</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>512</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G106" t="n">
+        <v>512</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I106" t="n">
+        <v>524288</v>
+      </c>
+      <c r="J106" t="n">
+        <v>524288</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1049600</v>
+      </c>
+      <c r="L106" t="n">
+        <v>525312</v>
+      </c>
+      <c r="N106" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MLM-Norm</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>LayerNormalization</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>512</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G107" t="n">
+        <v>512</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I107" t="n">
+        <v>524288</v>
+      </c>
+      <c r="J107" t="n">
+        <v>524288</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2048</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3582</v>
+      </c>
+      <c r="N107" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Extract</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Extract</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>512</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I108" t="n">
+        <v>524288</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MLM-Sim</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>EmbeddingSimilarity</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>512</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G109" t="n">
+        <v>512</v>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+      <c r="I109" t="n">
+        <v>525312</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2560</v>
+      </c>
+      <c r="K109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Input-Masked</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>InputLayer</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>512</v>
+      </c>
+      <c r="G110" t="n">
+        <v>512</v>
+      </c>
+      <c r="I110" t="n">
+        <v>512</v>
+      </c>
+      <c r="J110" t="n">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NSP-Dense</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1024</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1024</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1049600</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1049600</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MLM</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Masked</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>512</v>
+      </c>
+      <c r="D112" t="n">
+        <v>5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>512</v>
+      </c>
+      <c r="G112" t="n">
+        <v>512</v>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3072</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NSP</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1024</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1024</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2050</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2050</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1024</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J105">
-    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" type="cellIs">
-      <formula>397056</formula>
+  <conditionalFormatting sqref="J1:J113">
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
+      <formula>529408</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K105">
-    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" type="cellIs">
-      <formula>4722432.0</formula>
+  <conditionalFormatting sqref="K1:K113">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1" stopIfTrue="1">
+      <formula>6295552.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L105">
-    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" type="cellIs">
-      <formula>2417885184.0</formula>
+  <conditionalFormatting sqref="L1:L113">
+    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
+      <formula>3223322624.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -4289,7 +4485,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="25"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4306,7 +4502,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.763427734375</v>
+        <v>46.02490425109863</v>
       </c>
     </row>
     <row r="3">
@@ -4316,7 +4512,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.495849609375</v>
+        <v>122.6552801132202</v>
       </c>
     </row>
     <row r="4">
@@ -4326,10 +4522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.03955078125</v>
+        <v>66.04834366030991</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>